--- a/biology/Botanique/Pièce_florale/Pièce_florale.xlsx
+++ b/biology/Botanique/Pièce_florale/Pièce_florale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pi%C3%A8ce_florale</t>
+          <t>Pièce_florale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pièces florales sont les différentes parties de la fleur, organe de reproduction sexuée des Angiospermes. 
 Les principales pièces florales sont : 
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pi%C3%A8ce_florale</t>
+          <t>Pièce_florale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Les différentes pièces florales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve deux types de pièces florales : les pièces stériles et les pièces fertiles.
 Les pièces stériles comprennent le pédoncule, la bractée (ou les bractées) et le périanthe. Le périanthe (du grec : peri = autour et anthos = fleur) est constitué des sépales et des pétales.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pi%C3%A8ce_florale</t>
+          <t>Pièce_florale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Pièces florales et morphologie de la fleur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pièces florales s’organisent plus ou moins régulièrement autour d’un axe floral. Il existe deux types de symétries florales : 
 les fleurs actinomorphes (aktinos = rayon) ou régulières ont un centre de symétrie, tel le bouton d’or,
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pi%C3%A8ce_florale</t>
+          <t>Pièce_florale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Formule florale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La formule florale est une description simplifiée de l'organisation des pièces florales d'une fleur.
 Sont indiqués :
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pi%C3%A8ce_florale</t>
+          <t>Pièce_florale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,7 +647,9 @@
           <t>Origine des pièces florales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pièces florales sont considérées comme des feuilles modifiées qui, pour les pièces florales fertiles, sont repliées sur elles-mêmes si on observe les organes reproducteurs (étamines et ovaires).
 Récemment, un complexe de gènes à boite MADS a été identifié. C'est la combinaison de l'expression de ces différents gènes qui définit l'identité des différents verticilles floraux. Une mutation dans l'un des gènes de ce complexe entraine un phénotype homéotique, c'est-à-dire le remplacement d'un verticille par un autre. On parle ici d'une homéose florale (Cf. article William Bateson).
